--- a/website/Formatos/FormatoTDC_P2.xlsx
+++ b/website/Formatos/FormatoTDC_P2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\SitiosFuentes\qntProcesos\website\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\Sitios Fuentes\qntProcesos\website\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>IdColocacion</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Copia de NumeroTarjeta</t>
-  </si>
-  <si>
     <t>QNT EMPRESARIAL</t>
   </si>
   <si>
@@ -80,7 +77,13 @@
     <t>PENDIENTE ACUSE POR ALTA MAS.</t>
   </si>
   <si>
-    <t>RONALD*RODRIGUEZ</t>
+    <t>CopiadeNumeroTarjeta</t>
+  </si>
+  <si>
+    <t>NOMBRE1*APELLIDO1</t>
+  </si>
+  <si>
+    <t>ID_BPM</t>
   </si>
 </sst>
 </file>
@@ -496,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +520,7 @@
     <col min="11" max="11" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,10 +552,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6863</v>
       </c>
@@ -560,13 +566,13 @@
         <v>4813960</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="4">
         <v>200000</v>
@@ -575,7 +581,7 @@
         <v>901187660</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2">
         <v>201823</v>
@@ -584,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/website/Formatos/FormatoTDC_P2.xlsx
+++ b/website/Formatos/FormatoTDC_P2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>IdColocacion</t>
   </si>
@@ -83,7 +83,10 @@
     <t>NOMBRE1*APELLIDO1</t>
   </si>
   <si>
-    <t>ID_BPM</t>
+    <t>no_TarjetaDeCredito</t>
+  </si>
+  <si>
+    <t>DocumentoCliente</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,9 +521,11 @@
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +562,11 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6863</v>
       </c>

--- a/website/Formatos/FormatoTDC_P2.xlsx
+++ b/website/Formatos/FormatoTDC_P2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>IdColocacion</t>
   </si>
@@ -68,9 +68,6 @@
     <t>QNT EMPRESARIAL</t>
   </si>
   <si>
-    <t>2022-03-21</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -80,13 +77,19 @@
     <t>CopiadeNumeroTarjeta</t>
   </si>
   <si>
-    <t>NOMBRE1*APELLIDO1</t>
-  </si>
-  <si>
     <t>no_TarjetaDeCredito</t>
   </si>
   <si>
     <t>DocumentoCliente</t>
+  </si>
+  <si>
+    <t>ID BPM</t>
+  </si>
+  <si>
+    <t>2022-03-26</t>
+  </si>
+  <si>
+    <t>CLARA MARIA*RODRIGUEZ</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +190,12 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,13 +528,14 @@
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,16 +567,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6863</v>
       </c>
@@ -576,11 +589,11 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="4">
         <v>200000</v>
@@ -589,19 +602,27 @@
         <v>901187660</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2">
         <v>201823</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2">
+        <v>123456</v>
+      </c>
+      <c r="N2">
+        <v>11223344</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>